--- a/excels/test-rowsbean.xlsx
+++ b/excels/test-rowsbean.xlsx
@@ -62,19 +62,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="B1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/excels/test-rowsbean.xlsx
+++ b/excels/test-rowsbean.xlsx
@@ -62,19 +62,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/excels/test-rowsbean.xlsx
+++ b/excels/test-rowsbean.xlsx
@@ -67,6 +67,9 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="6.54296875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/excels/test-rowsbean.xlsx
+++ b/excels/test-rowsbean.xlsx
@@ -67,9 +67,6 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="6.54296875" customWidth="true" bestFit="true"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/excels/test-rowsbean.xlsx
+++ b/excels/test-rowsbean.xlsx
@@ -62,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
